--- a/output/WSWS.xlsx
+++ b/output/WSWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phazn\Downloads\PREE\WSWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pree\Thai_SA_journal\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C39D31-4456-49BF-BF64-FFBC75EA7BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A835E80B-17A2-427E-B840-1BA063E8A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BDD03C8-F7C5-4674-9603-EB57B3FD651B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="11" xr2:uid="{9BDD03C8-F7C5-4674-9603-EB57B3FD651B}"/>
   </bookViews>
   <sheets>
     <sheet name="BOW1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="DICTTFIDF" sheetId="6" r:id="rId8"/>
     <sheet name="W2V_AVG" sheetId="8" r:id="rId9"/>
     <sheet name="W2V_TF" sheetId="11" r:id="rId10"/>
-    <sheet name="POSTAG" sheetId="7" r:id="rId11"/>
+    <sheet name="POSTAG-BOW" sheetId="7" r:id="rId11"/>
+    <sheet name="POSTAG-AVG" sheetId="13" r:id="rId12"/>
+    <sheet name="POSTAG-FLAT" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1370">
   <si>
     <t>SVM</t>
   </si>
@@ -3567,17 +3569,605 @@
   </si>
   <si>
     <t>0.792±0.792</t>
+  </si>
+  <si>
+    <t>0.5445±0.0002</t>
+  </si>
+  <si>
+    <t>0.1924±0.0652</t>
+  </si>
+  <si>
+    <t>0.25±0.0001</t>
+  </si>
+  <si>
+    <t>0.0009±0.0074</t>
+  </si>
+  <si>
+    <t>0.5±0.0001</t>
+  </si>
+  <si>
+    <t>0.5446±0.0</t>
+  </si>
+  <si>
+    <t>0.1362±0.0</t>
+  </si>
+  <si>
+    <t>0.25±0.0</t>
+  </si>
+  <si>
+    <t>0.0±0.0</t>
+  </si>
+  <si>
+    <t>0.5001±0.0001</t>
+  </si>
+  <si>
+    <t>0.508±0.1156</t>
+  </si>
+  <si>
+    <t>0.1999±0.0726</t>
+  </si>
+  <si>
+    <t>0.2501±0.0001</t>
+  </si>
+  <si>
+    <t>0.0027±0.0063</t>
+  </si>
+  <si>
+    <t>0.5157±0.0914</t>
+  </si>
+  <si>
+    <t>0.1893±0.075</t>
+  </si>
+  <si>
+    <t>0.002±0.0061</t>
+  </si>
+  <si>
+    <t>0.1612±0.0527</t>
+  </si>
+  <si>
+    <t>0.001±0.0021</t>
+  </si>
+  <si>
+    <t>0.4998±0.0006</t>
+  </si>
+  <si>
+    <t>0.4502±0.1534</t>
+  </si>
+  <si>
+    <t>0.2021±0.1055</t>
+  </si>
+  <si>
+    <t>0.0024±0.0057</t>
+  </si>
+  <si>
+    <t>0.4791±0.1392</t>
+  </si>
+  <si>
+    <t>0.2077±0.0721</t>
+  </si>
+  <si>
+    <t>0.0026±0.0061</t>
+  </si>
+  <si>
+    <t>0.2122±0.0403</t>
+  </si>
+  <si>
+    <t>0.1763±0.0</t>
+  </si>
+  <si>
+    <t>0.2159±0.044</t>
+  </si>
+  <si>
+    <t>0.2087±0.0445</t>
+  </si>
+  <si>
+    <t>0.1921±0.0334</t>
+  </si>
+  <si>
+    <t>0.2109±0.0619</t>
+  </si>
+  <si>
+    <t>0.2209±0.0428</t>
+  </si>
+  <si>
+    <t>0.5003±0.0005</t>
+  </si>
+  <si>
+    <t>0.5447±0.0001</t>
+  </si>
+  <si>
+    <t>0.232±0.1146</t>
+  </si>
+  <si>
+    <t>0.0051±0.0085</t>
+  </si>
+  <si>
+    <t>0.2282±0.059</t>
+  </si>
+  <si>
+    <t>0.5447±0.0</t>
+  </si>
+  <si>
+    <t>0.1487±0.0395</t>
+  </si>
+  <si>
+    <t>0.0006±0.0037</t>
+  </si>
+  <si>
+    <t>0.1842±0.025</t>
+  </si>
+  <si>
+    <t>0.2237±0.1186</t>
+  </si>
+  <si>
+    <t>0.0044±0.0087</t>
+  </si>
+  <si>
+    <t>0.2224±0.0611</t>
+  </si>
+  <si>
+    <t>0.1987±0.1062</t>
+  </si>
+  <si>
+    <t>0.0037±0.0067</t>
+  </si>
+  <si>
+    <t>0.2097±0.0553</t>
+  </si>
+  <si>
+    <t>0.5001±0.0002</t>
+  </si>
+  <si>
+    <t>0.4503±0.1535</t>
+  </si>
+  <si>
+    <t>0.2584±0.1109</t>
+  </si>
+  <si>
+    <t>0.0069±0.0088</t>
+  </si>
+  <si>
+    <t>0.243±0.0576</t>
+  </si>
+  <si>
+    <t>0.5001±0.0003</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>0.5826±0.0061</t>
+  </si>
+  <si>
+    <t>0.4033±0.0156</t>
+  </si>
+  <si>
+    <t>0.3265±0.0053</t>
+  </si>
+  <si>
+    <t>0.2177±0.0139</t>
+  </si>
+  <si>
+    <t>0.6412±0.0087</t>
+  </si>
+  <si>
+    <t>0.3608±0.0091</t>
+  </si>
+  <si>
+    <t>0.5596±0.0027</t>
+  </si>
+  <si>
+    <t>0.2744±0.005</t>
+  </si>
+  <si>
+    <t>0.281±0.0023</t>
+  </si>
+  <si>
+    <t>0.1295±0.0089</t>
+  </si>
+  <si>
+    <t>0.5942±0.018</t>
+  </si>
+  <si>
+    <t>0.2777±0.0034</t>
+  </si>
+  <si>
+    <t>0.5631±0.0052</t>
+  </si>
+  <si>
+    <t>0.3807±0.0164</t>
+  </si>
+  <si>
+    <t>0.3426±0.0044</t>
+  </si>
+  <si>
+    <t>0.2125±0.0086</t>
+  </si>
+  <si>
+    <t>0.6476±0.0056</t>
+  </si>
+  <si>
+    <t>0.3605±0.0093</t>
+  </si>
+  <si>
+    <t>0.5579±0.005</t>
+  </si>
+  <si>
+    <t>0.3657±0.0099</t>
+  </si>
+  <si>
+    <t>0.3374±0.005</t>
+  </si>
+  <si>
+    <t>0.2038±0.0099</t>
+  </si>
+  <si>
+    <t>0.6331±0.0067</t>
+  </si>
+  <si>
+    <t>0.351±0.0072</t>
+  </si>
+  <si>
+    <t>0.5873±0.0058</t>
+  </si>
+  <si>
+    <t>0.4087±0.0216</t>
+  </si>
+  <si>
+    <t>0.3369±0.0066</t>
+  </si>
+  <si>
+    <t>0.2355±0.0132</t>
+  </si>
+  <si>
+    <t>0.6957±0.008</t>
+  </si>
+  <si>
+    <t>0.3691±0.0101</t>
+  </si>
+  <si>
+    <t>0.5869±0.006</t>
+  </si>
+  <si>
+    <t>0.4137±0.0253</t>
+  </si>
+  <si>
+    <t>0.3363±0.0068</t>
+  </si>
+  <si>
+    <t>0.2348±0.0147</t>
+  </si>
+  <si>
+    <t>0.6974±0.0066</t>
+  </si>
+  <si>
+    <t>0.3707±0.0115</t>
+  </si>
+  <si>
+    <t>0.5846±0.0063</t>
+  </si>
+  <si>
+    <t>0.404±0.0095</t>
+  </si>
+  <si>
+    <t>0.3346±0.008</t>
+  </si>
+  <si>
+    <t>0.229±0.0162</t>
+  </si>
+  <si>
+    <t>0.6822±0.0114</t>
+  </si>
+  <si>
+    <t>0.366±0.007</t>
+  </si>
+  <si>
+    <t>0.5446±0.0001</t>
+  </si>
+  <si>
+    <t>0.217±0.1012</t>
+  </si>
+  <si>
+    <t>0.0064±0.0067</t>
+  </si>
+  <si>
+    <t>0.6468±0.0079</t>
+  </si>
+  <si>
+    <t>0.2221±0.0532</t>
+  </si>
+  <si>
+    <t>0.4624±0.0196</t>
+  </si>
+  <si>
+    <t>0.316±0.0145</t>
+  </si>
+  <si>
+    <t>0.3147±0.0133</t>
+  </si>
+  <si>
+    <t>0.1143±0.0193</t>
+  </si>
+  <si>
+    <t>0.5431±0.0088</t>
+  </si>
+  <si>
+    <t>0.3153±0.0138</t>
+  </si>
+  <si>
+    <t>0.5006±0.0063</t>
+  </si>
+  <si>
+    <t>0.3232±0.0068</t>
+  </si>
+  <si>
+    <t>0.3166±0.0048</t>
+  </si>
+  <si>
+    <t>0.1394±0.0083</t>
+  </si>
+  <si>
+    <t>0.5624±0.0046</t>
+  </si>
+  <si>
+    <t>0.3199±0.0058</t>
+  </si>
+  <si>
+    <t>0.5552±0.0043</t>
+  </si>
+  <si>
+    <t>0.3828±0.0125</t>
+  </si>
+  <si>
+    <t>0.2866±0.0037</t>
+  </si>
+  <si>
+    <t>0.1258±0.0127</t>
+  </si>
+  <si>
+    <t>0.6587±0.0085</t>
+  </si>
+  <si>
+    <t>0.3278±0.0061</t>
+  </si>
+  <si>
+    <t>0.5544±0.0039</t>
+  </si>
+  <si>
+    <t>0.3815±0.0174</t>
+  </si>
+  <si>
+    <t>0.2812±0.003</t>
+  </si>
+  <si>
+    <t>0.1174±0.012</t>
+  </si>
+  <si>
+    <t>0.3237±0.0078</t>
+  </si>
+  <si>
+    <t>0.5839±0.0045</t>
+  </si>
+  <si>
+    <t>0.4052±0.0116</t>
+  </si>
+  <si>
+    <t>0.328±0.006</t>
+  </si>
+  <si>
+    <t>0.2212±0.012</t>
+  </si>
+  <si>
+    <t>0.6433±0.0095</t>
+  </si>
+  <si>
+    <t>0.3625±0.0082</t>
+  </si>
+  <si>
+    <t>0.5608±0.0034</t>
+  </si>
+  <si>
+    <t>0.2754±0.0049</t>
+  </si>
+  <si>
+    <t>0.2819±0.0028</t>
+  </si>
+  <si>
+    <t>0.133±0.0112</t>
+  </si>
+  <si>
+    <t>0.5949±0.0117</t>
+  </si>
+  <si>
+    <t>0.2786±0.0038</t>
+  </si>
+  <si>
+    <t>0.5679±0.0033</t>
+  </si>
+  <si>
+    <t>0.3883±0.018</t>
+  </si>
+  <si>
+    <t>0.3447±0.0038</t>
+  </si>
+  <si>
+    <t>0.2193±0.0071</t>
+  </si>
+  <si>
+    <t>0.6543±0.0095</t>
+  </si>
+  <si>
+    <t>0.3651±0.0093</t>
+  </si>
+  <si>
+    <t>0.5624±0.0076</t>
+  </si>
+  <si>
+    <t>0.3751±0.0135</t>
+  </si>
+  <si>
+    <t>0.3391±0.0053</t>
+  </si>
+  <si>
+    <t>0.2091±0.0137</t>
+  </si>
+  <si>
+    <t>0.6434±0.0093</t>
+  </si>
+  <si>
+    <t>0.3561±0.0081</t>
+  </si>
+  <si>
+    <t>0.5818±0.0038</t>
+  </si>
+  <si>
+    <t>0.4218±0.0441</t>
+  </si>
+  <si>
+    <t>0.3406±0.0039</t>
+  </si>
+  <si>
+    <t>0.2304±0.0084</t>
+  </si>
+  <si>
+    <t>0.7035±0.0044</t>
+  </si>
+  <si>
+    <t>0.3761±0.0178</t>
+  </si>
+  <si>
+    <t>0.5781±0.0035</t>
+  </si>
+  <si>
+    <t>0.4072±0.0277</t>
+  </si>
+  <si>
+    <t>0.3421±0.0043</t>
+  </si>
+  <si>
+    <t>0.2279±0.0076</t>
+  </si>
+  <si>
+    <t>0.695±0.0061</t>
+  </si>
+  <si>
+    <t>0.3715±0.0127</t>
+  </si>
+  <si>
+    <t>0.5845±0.0053</t>
+  </si>
+  <si>
+    <t>0.4033±0.0082</t>
+  </si>
+  <si>
+    <t>0.3362±0.0054</t>
+  </si>
+  <si>
+    <t>0.2302±0.0116</t>
+  </si>
+  <si>
+    <t>0.6891±0.0077</t>
+  </si>
+  <si>
+    <t>0.3667±0.0047</t>
+  </si>
+  <si>
+    <t>0.5448±0.0002</t>
+  </si>
+  <si>
+    <t>0.2168±0.109</t>
+  </si>
+  <si>
+    <t>0.2502±0.0003</t>
+  </si>
+  <si>
+    <t>0.0077±0.0099</t>
+  </si>
+  <si>
+    <t>0.6525±0.0111</t>
+  </si>
+  <si>
+    <t>0.2202±0.0579</t>
+  </si>
+  <si>
+    <t>0.4633±0.0213</t>
+  </si>
+  <si>
+    <t>0.3189±0.0124</t>
+  </si>
+  <si>
+    <t>0.3183±0.0123</t>
+  </si>
+  <si>
+    <t>0.116±0.0195</t>
+  </si>
+  <si>
+    <t>0.5455±0.0082</t>
+  </si>
+  <si>
+    <t>0.3186±0.0122</t>
+  </si>
+  <si>
+    <t>0.5071±0.007</t>
+  </si>
+  <si>
+    <t>0.3285±0.009</t>
+  </si>
+  <si>
+    <t>0.3199±0.0068</t>
+  </si>
+  <si>
+    <t>0.1453±0.0131</t>
+  </si>
+  <si>
+    <t>0.5711±0.0067</t>
+  </si>
+  <si>
+    <t>0.3241±0.0078</t>
+  </si>
+  <si>
+    <t>0.5558±0.0034</t>
+  </si>
+  <si>
+    <t>0.3852±0.0105</t>
+  </si>
+  <si>
+    <t>0.2864±0.0024</t>
+  </si>
+  <si>
+    <t>0.1265±0.0094</t>
+  </si>
+  <si>
+    <t>0.664±0.008</t>
+  </si>
+  <si>
+    <t>0.3285±0.0051</t>
+  </si>
+  <si>
+    <t>0.555±0.0034</t>
+  </si>
+  <si>
+    <t>0.3798±0.0175</t>
+  </si>
+  <si>
+    <t>0.1186±0.0105</t>
+  </si>
+  <si>
+    <t>0.6593±0.0087</t>
+  </si>
+  <si>
+    <t>0.3231±0.008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -3586,7 +4176,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3626,7 +4216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3642,7 +4232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3940,16 +4530,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8EA2A-9E9F-440E-AA8B-BE5295D9DA09}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="14" width="10.69921875" customWidth="1"/>
+    <col min="1" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3957,7 +4547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3995,7 +4585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +4626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4118,7 +4708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4159,7 +4749,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4200,7 +4790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4241,7 +4831,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4282,7 +4872,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4405,7 +4995,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4446,7 +5036,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4487,10 +5077,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4498,25 +5088,25 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -4529,12 +5119,12 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="N21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4542,7 +5132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4580,62 +5170,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4647,15 +5237,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0EB1-A2B3-4508-8794-059653B4E84D}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4663,7 +5253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4701,70 +5291,503 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4772,41 +5795,613 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF8229-1444-4BF3-9EA0-95A4BF1A1E2C}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>641</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A597372-07F4-420B-9D49-451F8201653D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4821,15 +6416,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4837,7 +6432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4875,7 +6470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4916,7 +6511,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4957,7 +6552,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4998,7 +6593,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5039,7 +6634,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +6675,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5121,7 +6716,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5162,7 +6757,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +6798,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5244,7 +6839,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5285,7 +6880,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5326,7 +6921,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -5367,10 +6962,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5378,16 +6973,16 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -5403,9 +6998,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5413,7 +7008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +7046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +7087,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5533,7 +7128,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5574,7 +7169,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5615,7 +7210,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5656,7 +7251,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5697,7 +7292,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5738,7 +7333,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5779,7 +7374,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5820,7 +7415,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5861,7 +7456,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5902,7 +7497,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -5956,9 +7551,9 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5966,7 +7561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -6004,7 +7599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6045,7 +7640,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6086,7 +7681,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6127,7 +7722,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +7763,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +7804,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6250,7 +7845,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6291,7 +7886,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +7927,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6373,7 +7968,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -6414,7 +8009,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6455,7 +8050,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -6509,18 +8104,18 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6528,7 +8123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -6566,7 +8161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6607,7 +8202,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6648,7 +8243,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6689,7 +8284,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6730,7 +8325,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6771,7 +8366,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6812,7 +8407,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6853,7 +8448,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6894,7 +8489,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6935,7 +8530,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -6976,7 +8571,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -7017,7 +8612,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7071,14 +8666,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7086,7 +8681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -7124,7 +8719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7165,7 +8760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7206,7 +8801,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7247,7 +8842,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7288,7 +8883,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7329,7 +8924,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -7370,7 +8965,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -7411,7 +9006,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -7452,7 +9047,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7493,7 +9088,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -7534,7 +9129,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -7575,7 +9170,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7629,9 +9224,9 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7639,7 +9234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -7677,7 +9272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7718,7 +9313,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7759,7 +9354,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7800,7 +9395,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7841,7 +9436,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7882,7 +9477,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -7923,7 +9518,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -7964,7 +9559,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +9600,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -8046,7 +9641,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -8087,7 +9682,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8128,7 +9723,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8182,9 +9777,9 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8192,7 +9787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -8230,7 +9825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8271,7 +9866,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8312,7 +9907,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -8353,7 +9948,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8394,7 +9989,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8435,7 +10030,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -8476,7 +10071,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -8517,7 +10112,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -8558,7 +10153,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -8599,7 +10194,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -8640,7 +10235,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8681,7 +10276,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8732,12 +10327,12 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8745,7 +10340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -8783,7 +10378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8824,7 +10419,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8865,7 +10460,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -8906,7 +10501,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8947,7 +10542,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8988,7 +10583,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="5" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -9029,7 +10624,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -9070,7 +10665,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -9111,7 +10706,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -9152,7 +10747,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -9193,7 +10788,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -9234,7 +10829,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>

--- a/output/WSWS.xlsx
+++ b/output/WSWS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pree\Thai_SA_journal\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A835E80B-17A2-427E-B840-1BA063E8A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2300813-96AF-484D-965A-45BB6C9916AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="11" xr2:uid="{9BDD03C8-F7C5-4674-9603-EB57B3FD651B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="680" firstSheet="2" activeTab="13" xr2:uid="{9BDD03C8-F7C5-4674-9603-EB57B3FD651B}"/>
   </bookViews>
   <sheets>
     <sheet name="BOW1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="W2V_TF" sheetId="11" r:id="rId10"/>
     <sheet name="POSTAG-BOW" sheetId="7" r:id="rId11"/>
     <sheet name="POSTAG-AVG" sheetId="13" r:id="rId12"/>
-    <sheet name="POSTAG-FLAT" sheetId="14" r:id="rId13"/>
+    <sheet name="POSTAG-CONCAT" sheetId="15" r:id="rId13"/>
+    <sheet name="POSTAG-FLAT" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1513">
   <si>
     <t>SVM</t>
   </si>
@@ -3733,9 +3734,6 @@
     <t>0.5001±0.0003</t>
   </si>
   <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>0.5826±0.0061</t>
   </si>
   <si>
@@ -4157,6 +4155,438 @@
   </si>
   <si>
     <t>0.3231±0.008</t>
+  </si>
+  <si>
+    <t>0.5981±0.0038</t>
+  </si>
+  <si>
+    <t>0.4564±0.0384</t>
+  </si>
+  <si>
+    <t>0.3269±0.0069</t>
+  </si>
+  <si>
+    <t>0.2495±0.0094</t>
+  </si>
+  <si>
+    <t>0.6665±0.0092</t>
+  </si>
+  <si>
+    <t>0.3804±0.0136</t>
+  </si>
+  <si>
+    <t>0.5881±0.0033</t>
+  </si>
+  <si>
+    <t>0.4234±0.0112</t>
+  </si>
+  <si>
+    <t>0.3198±0.0092</t>
+  </si>
+  <si>
+    <t>0.224±0.0109</t>
+  </si>
+  <si>
+    <t>0.6891±0.0107</t>
+  </si>
+  <si>
+    <t>0.3642±0.0063</t>
+  </si>
+  <si>
+    <t>0.5779±0.0052</t>
+  </si>
+  <si>
+    <t>0.4592±0.0821</t>
+  </si>
+  <si>
+    <t>0.3202±0.0084</t>
+  </si>
+  <si>
+    <t>0.2023±0.0131</t>
+  </si>
+  <si>
+    <t>0.6543±0.0064</t>
+  </si>
+  <si>
+    <t>0.375±0.0257</t>
+  </si>
+  <si>
+    <t>0.5874±0.0069</t>
+  </si>
+  <si>
+    <t>0.4859±0.0676</t>
+  </si>
+  <si>
+    <t>0.3413±0.0092</t>
+  </si>
+  <si>
+    <t>0.2317±0.0133</t>
+  </si>
+  <si>
+    <t>0.6588±0.0057</t>
+  </si>
+  <si>
+    <t>0.3997±0.0259</t>
+  </si>
+  <si>
+    <t>0.5961±0.0046</t>
+  </si>
+  <si>
+    <t>0.4303±0.0081</t>
+  </si>
+  <si>
+    <t>0.3279±0.0063</t>
+  </si>
+  <si>
+    <t>0.2438±0.0118</t>
+  </si>
+  <si>
+    <t>0.6886±0.0134</t>
+  </si>
+  <si>
+    <t>0.3721±0.0052</t>
+  </si>
+  <si>
+    <t>0.6036±0.0042</t>
+  </si>
+  <si>
+    <t>0.5066±0.1052</t>
+  </si>
+  <si>
+    <t>0.3378±0.0046</t>
+  </si>
+  <si>
+    <t>0.2635±0.0104</t>
+  </si>
+  <si>
+    <t>0.701±0.01</t>
+  </si>
+  <si>
+    <t>0.4019±0.0311</t>
+  </si>
+  <si>
+    <t>0.5458±0.012</t>
+  </si>
+  <si>
+    <t>0.4007±0.0434</t>
+  </si>
+  <si>
+    <t>0.3396±0.0097</t>
+  </si>
+  <si>
+    <t>0.1883±0.0122</t>
+  </si>
+  <si>
+    <t>0.6424±0.0115</t>
+  </si>
+  <si>
+    <t>0.3669±0.0211</t>
+  </si>
+  <si>
+    <t>0.5667±0.0038</t>
+  </si>
+  <si>
+    <t>0.4234±0.0464</t>
+  </si>
+  <si>
+    <t>0.2855±0.0044</t>
+  </si>
+  <si>
+    <t>0.1542±0.0135</t>
+  </si>
+  <si>
+    <t>0.6689±0.0119</t>
+  </si>
+  <si>
+    <t>0.3403±0.0149</t>
+  </si>
+  <si>
+    <t>0.4731±0.0406</t>
+  </si>
+  <si>
+    <t>0.3139±0.0324</t>
+  </si>
+  <si>
+    <t>0.2889±0.0195</t>
+  </si>
+  <si>
+    <t>0.065±0.0377</t>
+  </si>
+  <si>
+    <t>0.5259±0.013</t>
+  </si>
+  <si>
+    <t>0.3008±0.0252</t>
+  </si>
+  <si>
+    <t>0.5155±0.0149</t>
+  </si>
+  <si>
+    <t>0.3465±0.0208</t>
+  </si>
+  <si>
+    <t>0.3306±0.0126</t>
+  </si>
+  <si>
+    <t>0.1607±0.017</t>
+  </si>
+  <si>
+    <t>0.5562±0.0106</t>
+  </si>
+  <si>
+    <t>0.3382±0.0155</t>
+  </si>
+  <si>
+    <t>0.5843±0.0039</t>
+  </si>
+  <si>
+    <t>0.4313±0.0417</t>
+  </si>
+  <si>
+    <t>0.3125±0.0099</t>
+  </si>
+  <si>
+    <t>0.2145±0.0122</t>
+  </si>
+  <si>
+    <t>0.6936±0.0123</t>
+  </si>
+  <si>
+    <t>0.3616±0.0143</t>
+  </si>
+  <si>
+    <t>0.5529±0.0018</t>
+  </si>
+  <si>
+    <t>0.4881±0.0508</t>
+  </si>
+  <si>
+    <t>0.2602±0.002</t>
+  </si>
+  <si>
+    <t>0.0945±0.0112</t>
+  </si>
+  <si>
+    <t>0.7167±0.0069</t>
+  </si>
+  <si>
+    <t>0.3388±0.013</t>
+  </si>
+  <si>
+    <t>0.6213±0.0025</t>
+  </si>
+  <si>
+    <t>0.4707±0.0306</t>
+  </si>
+  <si>
+    <t>0.3648±0.0045</t>
+  </si>
+  <si>
+    <t>0.3083±0.0052</t>
+  </si>
+  <si>
+    <t>0.7088±0.008</t>
+  </si>
+  <si>
+    <t>0.4107±0.0124</t>
+  </si>
+  <si>
+    <t>0.616±0.0049</t>
+  </si>
+  <si>
+    <t>0.4532±0.0164</t>
+  </si>
+  <si>
+    <t>0.3658±0.0053</t>
+  </si>
+  <si>
+    <t>0.2999±0.0107</t>
+  </si>
+  <si>
+    <t>0.725±0.0084</t>
+  </si>
+  <si>
+    <t>0.4048±0.0091</t>
+  </si>
+  <si>
+    <t>0.5984±0.0083</t>
+  </si>
+  <si>
+    <t>0.4518±0.0233</t>
+  </si>
+  <si>
+    <t>0.3878±0.009</t>
+  </si>
+  <si>
+    <t>0.2874±0.0149</t>
+  </si>
+  <si>
+    <t>0.6993±0.0109</t>
+  </si>
+  <si>
+    <t>0.4173±0.0147</t>
+  </si>
+  <si>
+    <t>0.5949±0.0072</t>
+  </si>
+  <si>
+    <t>0.4433±0.0151</t>
+  </si>
+  <si>
+    <t>0.388±0.0063</t>
+  </si>
+  <si>
+    <t>0.2849±0.0123</t>
+  </si>
+  <si>
+    <t>0.6853±0.0103</t>
+  </si>
+  <si>
+    <t>0.4137±0.0095</t>
+  </si>
+  <si>
+    <t>0.6243±0.0043</t>
+  </si>
+  <si>
+    <t>0.5047±0.0494</t>
+  </si>
+  <si>
+    <t>0.3649±0.0062</t>
+  </si>
+  <si>
+    <t>0.3142±0.0099</t>
+  </si>
+  <si>
+    <t>0.7445±0.0082</t>
+  </si>
+  <si>
+    <t>0.4227±0.0168</t>
+  </si>
+  <si>
+    <t>0.6341±0.0033</t>
+  </si>
+  <si>
+    <t>0.5398±0.0334</t>
+  </si>
+  <si>
+    <t>0.3868±0.0038</t>
+  </si>
+  <si>
+    <t>0.339±0.0073</t>
+  </si>
+  <si>
+    <t>0.7556±0.0072</t>
+  </si>
+  <si>
+    <t>0.4502±0.0109</t>
+  </si>
+  <si>
+    <t>0.57±0.0085</t>
+  </si>
+  <si>
+    <t>0.4127±0.0077</t>
+  </si>
+  <si>
+    <t>0.3828±0.0083</t>
+  </si>
+  <si>
+    <t>0.2521±0.0149</t>
+  </si>
+  <si>
+    <t>0.6839±0.0119</t>
+  </si>
+  <si>
+    <t>0.3972±0.0077</t>
+  </si>
+  <si>
+    <t>0.5742±0.0038</t>
+  </si>
+  <si>
+    <t>0.4145±0.0143</t>
+  </si>
+  <si>
+    <t>0.2946±0.0041</t>
+  </si>
+  <si>
+    <t>0.1793±0.0116</t>
+  </si>
+  <si>
+    <t>0.7012±0.0085</t>
+  </si>
+  <si>
+    <t>0.3444±0.0065</t>
+  </si>
+  <si>
+    <t>0.4807±0.0226</t>
+  </si>
+  <si>
+    <t>0.3364±0.0193</t>
+  </si>
+  <si>
+    <t>0.3271±0.0147</t>
+  </si>
+  <si>
+    <t>0.1264±0.0233</t>
+  </si>
+  <si>
+    <t>0.5514±0.0098</t>
+  </si>
+  <si>
+    <t>0.3316±0.0169</t>
+  </si>
+  <si>
+    <t>0.5334±0.0076</t>
+  </si>
+  <si>
+    <t>0.3773±0.0111</t>
+  </si>
+  <si>
+    <t>0.3606±0.0079</t>
+  </si>
+  <si>
+    <t>0.2002±0.0114</t>
+  </si>
+  <si>
+    <t>0.606±0.0089</t>
+  </si>
+  <si>
+    <t>0.3687±0.0091</t>
+  </si>
+  <si>
+    <t>0.6162±0.0051</t>
+  </si>
+  <si>
+    <t>0.4958±0.0538</t>
+  </si>
+  <si>
+    <t>0.3506±0.0101</t>
+  </si>
+  <si>
+    <t>0.294±0.0131</t>
+  </si>
+  <si>
+    <t>0.732±0.0073</t>
+  </si>
+  <si>
+    <t>0.4094±0.0145</t>
+  </si>
+  <si>
+    <t>0.559±0.0042</t>
+  </si>
+  <si>
+    <t>0.5078±0.0341</t>
+  </si>
+  <si>
+    <t>0.2672±0.0045</t>
+  </si>
+  <si>
+    <t>0.1236±0.0198</t>
+  </si>
+  <si>
+    <t>0.7352±0.0098</t>
+  </si>
+  <si>
+    <t>0.3499±0.0102</t>
   </si>
 </sst>
 </file>
@@ -5841,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF8229-1444-4BF3-9EA0-95A4BF1A1E2C}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5898,40 +6328,40 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C3" t="s">
         <v>1229</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1230</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1231</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1232</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1233</v>
       </c>
-      <c r="G3" t="s">
-        <v>1234</v>
-      </c>
       <c r="I3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J3" t="s">
         <v>1299</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>1300</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>1301</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>1302</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>1303</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5939,40 +6369,40 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C4" t="s">
         <v>1235</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1236</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1237</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1238</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1239</v>
       </c>
-      <c r="G4" t="s">
-        <v>1240</v>
-      </c>
       <c r="I4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J4" t="s">
         <v>1305</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1306</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>1307</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1308</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1309</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5980,40 +6410,40 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C5" t="s">
         <v>1241</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1242</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1243</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1244</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>1245</v>
       </c>
-      <c r="G5" t="s">
-        <v>1246</v>
-      </c>
       <c r="I5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J5" t="s">
         <v>1311</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>1312</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>1313</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>1314</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>1315</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6021,40 +6451,40 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C6" t="s">
         <v>1247</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1248</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1249</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1250</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>1251</v>
       </c>
-      <c r="G6" t="s">
-        <v>1252</v>
-      </c>
       <c r="I6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J6" t="s">
         <v>1317</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>1318</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>1319</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>1320</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>1321</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6062,40 +6492,40 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C7" t="s">
         <v>1253</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1254</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1255</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1256</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>1257</v>
       </c>
-      <c r="G7" t="s">
-        <v>1258</v>
-      </c>
       <c r="I7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J7" t="s">
         <v>1323</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1324</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>1325</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>1326</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>1327</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1">
@@ -6103,40 +6533,40 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C8" t="s">
         <v>1259</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1260</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1261</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1262</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1263</v>
       </c>
-      <c r="G8" t="s">
-        <v>1264</v>
-      </c>
       <c r="I8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J8" t="s">
         <v>1329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>1330</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>1331</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>1332</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>1333</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6144,40 +6574,40 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C9" t="s">
         <v>1265</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1266</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1267</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1268</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1269</v>
       </c>
-      <c r="G9" t="s">
-        <v>1270</v>
-      </c>
       <c r="I9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J9" t="s">
         <v>1335</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1336</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>1337</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>1338</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>1339</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6185,40 +6615,40 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C10" t="s">
         <v>1271</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1272</v>
       </c>
       <c r="D10" t="s">
         <v>1186</v>
       </c>
       <c r="E10" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F10" t="s">
         <v>1273</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>1274</v>
       </c>
-      <c r="G10" t="s">
-        <v>1275</v>
-      </c>
       <c r="I10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J10" t="s">
         <v>1341</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>1342</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>1343</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>1344</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>1345</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6226,40 +6656,40 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C11" t="s">
         <v>1276</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1277</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1278</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1279</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>1280</v>
       </c>
-      <c r="G11" t="s">
-        <v>1281</v>
-      </c>
       <c r="I11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J11" t="s">
         <v>1347</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>1348</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>1349</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>1350</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>1351</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6267,40 +6697,40 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C12" t="s">
         <v>1282</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1283</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1284</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>1285</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1286</v>
       </c>
-      <c r="G12" t="s">
-        <v>1287</v>
-      </c>
       <c r="I12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J12" t="s">
         <v>1353</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>1354</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>1355</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>1356</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>1357</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -6308,40 +6738,40 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C13" t="s">
         <v>1288</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1289</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1290</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1291</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>1292</v>
       </c>
-      <c r="G13" t="s">
-        <v>1293</v>
-      </c>
       <c r="I13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J13" t="s">
         <v>1359</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>1360</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>1361</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>1362</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>1363</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6349,40 +6779,40 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C14" t="s">
         <v>1294</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1295</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1296</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1297</v>
       </c>
       <c r="F14" t="s">
         <v>641</v>
       </c>
       <c r="G14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J14" t="s">
         <v>1365</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L14" t="s">
         <v>1366</v>
       </c>
-      <c r="K14" t="s">
-        <v>1296</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>1367</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>1368</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -6391,16 +6821,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A597372-07F4-420B-9D49-451F8201653D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BC2E4C-9D75-4643-896B-5303546A4DE7}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>1228</v>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A597372-07F4-420B-9D49-451F8201653D}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1512</v>
       </c>
     </row>
   </sheetData>

--- a/output/WSWS.xlsx
+++ b/output/WSWS.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pree\Thai_SA_journal\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001402E8-D091-47FD-ABD9-FB1C15422577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="BOW1"/>
-    <sheet r:id="rId2" sheetId="2" name="TFIDF1"/>
-    <sheet r:id="rId3" sheetId="3" name="BOW12"/>
-    <sheet r:id="rId4" sheetId="4" name="TFIDF12"/>
-    <sheet r:id="rId5" sheetId="5" name="BOW2"/>
-    <sheet r:id="rId6" sheetId="6" name="TFIDF2"/>
-    <sheet r:id="rId7" sheetId="7" name="DICTBOW"/>
-    <sheet r:id="rId8" sheetId="8" name="DICTTFIDF"/>
-    <sheet r:id="rId9" sheetId="9" name="W2V_AVG"/>
-    <sheet r:id="rId10" sheetId="10" name="W2V_TF"/>
-    <sheet r:id="rId11" sheetId="11" name="POSTAG-BOW"/>
-    <sheet r:id="rId12" sheetId="12" name="POSTAG-AVG"/>
-    <sheet r:id="rId13" sheetId="13" name="POSTAG-CONCAT"/>
-    <sheet r:id="rId14" sheetId="14" name="POSTAG-FLAT"/>
+    <sheet name="BOW1" sheetId="1" r:id="rId1"/>
+    <sheet name="TFIDF1" sheetId="2" r:id="rId2"/>
+    <sheet name="BOW12" sheetId="3" r:id="rId3"/>
+    <sheet name="TFIDF12" sheetId="4" r:id="rId4"/>
+    <sheet name="BOW2" sheetId="5" r:id="rId5"/>
+    <sheet name="TFIDF2" sheetId="6" r:id="rId6"/>
+    <sheet name="DICTBOW" sheetId="7" r:id="rId7"/>
+    <sheet name="DICTTFIDF" sheetId="8" r:id="rId8"/>
+    <sheet name="W2V_AVG" sheetId="9" r:id="rId9"/>
+    <sheet name="W2V_TF" sheetId="10" r:id="rId10"/>
+    <sheet name="POSTAG-BOW" sheetId="11" r:id="rId11"/>
+    <sheet name="POSTAG-AVG" sheetId="12" r:id="rId12"/>
+    <sheet name="POSTAG-CONCAT" sheetId="13" r:id="rId13"/>
+    <sheet name="POSTAG-FLAT" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1656">
   <si>
     <t>TRAINING</t>
   </si>
@@ -1109,438 +1115,6 @@
     <t>0.5001±0.0003</t>
   </si>
   <si>
-    <t>0.6115±0.0067</t>
-  </si>
-  <si>
-    <t>0.4614±0.0113</t>
-  </si>
-  <si>
-    <t>0.3644±0.0051</t>
-  </si>
-  <si>
-    <t>0.2955±0.014</t>
-  </si>
-  <si>
-    <t>0.7249±0.0046</t>
-  </si>
-  <si>
-    <t>0.4072±0.0069</t>
-  </si>
-  <si>
-    <t>0.6135±0.0036</t>
-  </si>
-  <si>
-    <t>0.4668±0.0077</t>
-  </si>
-  <si>
-    <t>0.3665±0.0028</t>
-  </si>
-  <si>
-    <t>0.2998±0.0075</t>
-  </si>
-  <si>
-    <t>0.7285±0.0042</t>
-  </si>
-  <si>
-    <t>0.4106±0.0038</t>
-  </si>
-  <si>
-    <t>0.598±0.0057</t>
-  </si>
-  <si>
-    <t>0.291±0.0043</t>
-  </si>
-  <si>
-    <t>0.3384±0.0034</t>
-  </si>
-  <si>
-    <t>0.2573±0.0117</t>
-  </si>
-  <si>
-    <t>0.7141±0.0037</t>
-  </si>
-  <si>
-    <t>0.3129±0.0038</t>
-  </si>
-  <si>
-    <t>0.5735±0.0054</t>
-  </si>
-  <si>
-    <t>0.3786±0.0413</t>
-  </si>
-  <si>
-    <t>0.3265±0.0043</t>
-  </si>
-  <si>
-    <t>0.2125±0.0116</t>
-  </si>
-  <si>
-    <t>0.7054±0.0039</t>
-  </si>
-  <si>
-    <t>0.3497±0.0214</t>
-  </si>
-  <si>
-    <t>0.6079±0.005</t>
-  </si>
-  <si>
-    <t>0.4628±0.0102</t>
-  </si>
-  <si>
-    <t>0.3498±0.0047</t>
-  </si>
-  <si>
-    <t>0.2764±0.0114</t>
-  </si>
-  <si>
-    <t>0.7298±0.0083</t>
-  </si>
-  <si>
-    <t>0.3985±0.006</t>
-  </si>
-  <si>
-    <t>0.6068±0.005</t>
-  </si>
-  <si>
-    <t>0.464±0.0104</t>
-  </si>
-  <si>
-    <t>0.3501±0.0037</t>
-  </si>
-  <si>
-    <t>0.2741±0.0112</t>
-  </si>
-  <si>
-    <t>0.7348±0.0089</t>
-  </si>
-  <si>
-    <t>0.3991±0.0057</t>
-  </si>
-  <si>
-    <t>0.6062±0.0057</t>
-  </si>
-  <si>
-    <t>0.4576±0.0096</t>
-  </si>
-  <si>
-    <t>0.3508±0.0052</t>
-  </si>
-  <si>
-    <t>0.274±0.0128</t>
-  </si>
-  <si>
-    <t>0.727±0.0112</t>
-  </si>
-  <si>
-    <t>0.3971±0.0063</t>
-  </si>
-  <si>
-    <t>0.6058±0.0052</t>
-  </si>
-  <si>
-    <t>0.4578±0.0073</t>
-  </si>
-  <si>
-    <t>0.3513±0.0039</t>
-  </si>
-  <si>
-    <t>0.2733±0.0115</t>
-  </si>
-  <si>
-    <t>0.7322±0.0096</t>
-  </si>
-  <si>
-    <t>0.3975±0.0049</t>
-  </si>
-  <si>
-    <t>0.6129±0.0046</t>
-  </si>
-  <si>
-    <t>0.4764±0.0331</t>
-  </si>
-  <si>
-    <t>0.3752±0.0062</t>
-  </si>
-  <si>
-    <t>0.3004±0.0096</t>
-  </si>
-  <si>
-    <t>0.7513±0.0054</t>
-  </si>
-  <si>
-    <t>0.4194±0.0158</t>
-  </si>
-  <si>
-    <t>0.6175±0.0065</t>
-  </si>
-  <si>
-    <t>0.472±0.0323</t>
-  </si>
-  <si>
-    <t>0.38±0.0061</t>
-  </si>
-  <si>
-    <t>0.3103±0.0137</t>
-  </si>
-  <si>
-    <t>0.7579±0.0037</t>
-  </si>
-  <si>
-    <t>0.4206±0.0141</t>
-  </si>
-  <si>
-    <t>0.6125±0.0043</t>
-  </si>
-  <si>
-    <t>0.495±0.0441</t>
-  </si>
-  <si>
-    <t>0.3777±0.0061</t>
-  </si>
-  <si>
-    <t>0.3±0.0087</t>
-  </si>
-  <si>
-    <t>0.7497±0.0056</t>
-  </si>
-  <si>
-    <t>0.4279±0.02</t>
-  </si>
-  <si>
-    <t>0.6159±0.006</t>
-  </si>
-  <si>
-    <t>0.4778±0.0324</t>
-  </si>
-  <si>
-    <t>0.3809±0.0053</t>
-  </si>
-  <si>
-    <t>0.3082±0.0117</t>
-  </si>
-  <si>
-    <t>0.7556±0.0038</t>
-  </si>
-  <si>
-    <t>0.4235±0.0148</t>
-  </si>
-  <si>
-    <t>0.6071±0.0057</t>
-  </si>
-  <si>
-    <t>0.5195±0.048</t>
-  </si>
-  <si>
-    <t>0.3892±0.0142</t>
-  </si>
-  <si>
-    <t>0.2979±0.01</t>
-  </si>
-  <si>
-    <t>0.762±0.0084</t>
-  </si>
-  <si>
-    <t>0.4439±0.0168</t>
-  </si>
-  <si>
-    <t>0.6083±0.0077</t>
-  </si>
-  <si>
-    <t>0.5238±0.0374</t>
-  </si>
-  <si>
-    <t>0.3982±0.0197</t>
-  </si>
-  <si>
-    <t>0.307±0.0091</t>
-  </si>
-  <si>
-    <t>0.7675±0.0059</t>
-  </si>
-  <si>
-    <t>0.4512±0.0106</t>
-  </si>
-  <si>
-    <t>0.2063±0.1405</t>
-  </si>
-  <si>
-    <t>0.3187±0.0515</t>
-  </si>
-  <si>
-    <t>0.3285±0.0171</t>
-  </si>
-  <si>
-    <t>0.0732±0.0738</t>
-  </si>
-  <si>
-    <t>0.6376±0.0319</t>
-  </si>
-  <si>
-    <t>0.3225±0.0308</t>
-  </si>
-  <si>
-    <t>0.2138±0.1396</t>
-  </si>
-  <si>
-    <t>0.3225±0.0473</t>
-  </si>
-  <si>
-    <t>0.3314±0.0151</t>
-  </si>
-  <si>
-    <t>0.079±0.0743</t>
-  </si>
-  <si>
-    <t>0.6329±0.0336</t>
-  </si>
-  <si>
-    <t>0.3261±0.0284</t>
-  </si>
-  <si>
-    <t>0.519±0.0259</t>
-  </si>
-  <si>
-    <t>0.3628±0.0277</t>
-  </si>
-  <si>
-    <t>0.3673±0.0128</t>
-  </si>
-  <si>
-    <t>0.2074±0.0176</t>
-  </si>
-  <si>
-    <t>0.5936±0.0422</t>
-  </si>
-  <si>
-    <t>0.3648±0.0205</t>
-  </si>
-  <si>
-    <t>0.5208±0.019</t>
-  </si>
-  <si>
-    <t>0.3759±0.009</t>
-  </si>
-  <si>
-    <t>0.3691±0.0163</t>
-  </si>
-  <si>
-    <t>0.2096±0.0058</t>
-  </si>
-  <si>
-    <t>0.5948±0.039</t>
-  </si>
-  <si>
-    <t>0.3722±0.0097</t>
-  </si>
-  <si>
-    <t>0.4857±0.042</t>
-  </si>
-  <si>
-    <t>0.3385±0.0417</t>
-  </si>
-  <si>
-    <t>0.3294±0.0089</t>
-  </si>
-  <si>
-    <t>0.1513±0.0423</t>
-  </si>
-  <si>
-    <t>0.5692±0.0549</t>
-  </si>
-  <si>
-    <t>0.3333±0.0227</t>
-  </si>
-  <si>
-    <t>0.4907±0.0409</t>
-  </si>
-  <si>
-    <t>0.3456±0.044</t>
-  </si>
-  <si>
-    <t>0.3344±0.0078</t>
-  </si>
-  <si>
-    <t>0.1579±0.0406</t>
-  </si>
-  <si>
-    <t>0.5737±0.0579</t>
-  </si>
-  <si>
-    <t>0.3391±0.0225</t>
-  </si>
-  <si>
-    <t>0.6048±0.0049</t>
-  </si>
-  <si>
-    <t>0.5221±0.0678</t>
-  </si>
-  <si>
-    <t>0.368±0.008</t>
-  </si>
-  <si>
-    <t>0.2814±0.0108</t>
-  </si>
-  <si>
-    <t>0.7468±0.0102</t>
-  </si>
-  <si>
-    <t>0.4303±0.0217</t>
-  </si>
-  <si>
-    <t>0.6043±0.0045</t>
-  </si>
-  <si>
-    <t>0.4829±0.0427</t>
-  </si>
-  <si>
-    <t>0.3662±0.0091</t>
-  </si>
-  <si>
-    <t>0.2797±0.0115</t>
-  </si>
-  <si>
-    <t>0.7491±0.0073</t>
-  </si>
-  <si>
-    <t>0.416±0.0203</t>
-  </si>
-  <si>
-    <t>0.5491±0.0236</t>
-  </si>
-  <si>
-    <t>0.3295±0.1185</t>
-  </si>
-  <si>
-    <t>0.2644±0.042</t>
-  </si>
-  <si>
-    <t>0.0399±0.0956</t>
-  </si>
-  <si>
-    <t>0.6683±0.0267</t>
-  </si>
-  <si>
-    <t>0.2864±0.066</t>
-  </si>
-  <si>
-    <t>0.5475±0.0209</t>
-  </si>
-  <si>
-    <t>0.2832±0.0949</t>
-  </si>
-  <si>
-    <t>0.2628±0.0378</t>
-  </si>
-  <si>
-    <t>0.0335±0.0919</t>
-  </si>
-  <si>
-    <t>0.6654±0.0326</t>
-  </si>
-  <si>
-    <t>0.268±0.0568</t>
-  </si>
-  <si>
     <t>0.701±0.006</t>
   </si>
   <si>
@@ -4998,13 +4572,441 @@
   </si>
   <si>
     <t>0.441±0.444</t>
+  </si>
+  <si>
+    <t>0.6995±0.0074</t>
+  </si>
+  <si>
+    <t>0.6558±0.05</t>
+  </si>
+  <si>
+    <t>0.4854±0.0135</t>
+  </si>
+  <si>
+    <t>0.4767±0.0137</t>
+  </si>
+  <si>
+    <t>0.8312±0.0052</t>
+  </si>
+  <si>
+    <t>0.5575±0.0264</t>
+  </si>
+  <si>
+    <t>0.6474±0.005</t>
+  </si>
+  <si>
+    <t>0.4876±0.0062</t>
+  </si>
+  <si>
+    <t>0.411±0.0038</t>
+  </si>
+  <si>
+    <t>0.3739±0.0093</t>
+  </si>
+  <si>
+    <t>0.7679±0.0061</t>
+  </si>
+  <si>
+    <t>0.446±0.004</t>
+  </si>
+  <si>
+    <t>0.6559±0.0049</t>
+  </si>
+  <si>
+    <t>0.5133±0.0109</t>
+  </si>
+  <si>
+    <t>0.3943±0.0042</t>
+  </si>
+  <si>
+    <t>0.3827±0.0104</t>
+  </si>
+  <si>
+    <t>0.7907±0.0061</t>
+  </si>
+  <si>
+    <t>0.4459±0.0047</t>
+  </si>
+  <si>
+    <t>0.6552±0.0045</t>
+  </si>
+  <si>
+    <t>0.5204±0.0089</t>
+  </si>
+  <si>
+    <t>0.3934±0.0039</t>
+  </si>
+  <si>
+    <t>0.3814±0.0095</t>
+  </si>
+  <si>
+    <t>0.7932±0.0084</t>
+  </si>
+  <si>
+    <t>0.448±0.0037</t>
+  </si>
+  <si>
+    <t>0.6813±0.0057</t>
+  </si>
+  <si>
+    <t>0.6205±0.0349</t>
+  </si>
+  <si>
+    <t>0.4568±0.0025</t>
+  </si>
+  <si>
+    <t>0.4405±0.0104</t>
+  </si>
+  <si>
+    <t>0.8292±0.0064</t>
+  </si>
+  <si>
+    <t>0.5259±0.0138</t>
+  </si>
+  <si>
+    <t>0.6817±0.0063</t>
+  </si>
+  <si>
+    <t>0.6086±0.0259</t>
+  </si>
+  <si>
+    <t>0.46±0.0041</t>
+  </si>
+  <si>
+    <t>0.4413±0.0115</t>
+  </si>
+  <si>
+    <t>0.8282±0.0053</t>
+  </si>
+  <si>
+    <t>0.5238±0.0115</t>
+  </si>
+  <si>
+    <t>0.6495±0.0059</t>
+  </si>
+  <si>
+    <t>0.5418±0.0088</t>
+  </si>
+  <si>
+    <t>0.5125±0.0107</t>
+  </si>
+  <si>
+    <t>0.4134±0.0086</t>
+  </si>
+  <si>
+    <t>0.8092±0.0034</t>
+  </si>
+  <si>
+    <t>0.5267±0.0084</t>
+  </si>
+  <si>
+    <t>0.4747±0.0077</t>
+  </si>
+  <si>
+    <t>0.4164±0.0095</t>
+  </si>
+  <si>
+    <t>0.5007±0.0165</t>
+  </si>
+  <si>
+    <t>0.2702±0.012</t>
+  </si>
+  <si>
+    <t>0.7472±0.0055</t>
+  </si>
+  <si>
+    <t>0.4547±0.0122</t>
+  </si>
+  <si>
+    <t>0.5828±0.0085</t>
+  </si>
+  <si>
+    <t>0.459±0.0169</t>
+  </si>
+  <si>
+    <t>0.4487±0.0093</t>
+  </si>
+  <si>
+    <t>0.327±0.0122</t>
+  </si>
+  <si>
+    <t>0.6325±0.0062</t>
+  </si>
+  <si>
+    <t>0.4538±0.0127</t>
+  </si>
+  <si>
+    <t>0.5101±0.0072</t>
+  </si>
+  <si>
+    <t>0.3636±0.0044</t>
+  </si>
+  <si>
+    <t>0.3676±0.0055</t>
+  </si>
+  <si>
+    <t>0.2015±0.0091</t>
+  </si>
+  <si>
+    <t>0.5791±0.0038</t>
+  </si>
+  <si>
+    <t>0.3656±0.0049</t>
+  </si>
+  <si>
+    <t>0.6419±0.0058</t>
+  </si>
+  <si>
+    <t>0.534±0.0174</t>
+  </si>
+  <si>
+    <t>0.441±0.012</t>
+  </si>
+  <si>
+    <t>0.371±0.0109</t>
+  </si>
+  <si>
+    <t>0.8155±0.0064</t>
+  </si>
+  <si>
+    <t>0.483±0.0117</t>
+  </si>
+  <si>
+    <t>0.6115±0.0062</t>
+  </si>
+  <si>
+    <t>0.4445±0.0103</t>
+  </si>
+  <si>
+    <t>0.3626±0.0055</t>
+  </si>
+  <si>
+    <t>0.2906±0.013</t>
+  </si>
+  <si>
+    <t>0.791±0.005</t>
+  </si>
+  <si>
+    <t>0.3993±0.0068</t>
+  </si>
+  <si>
+    <t>0.7053±0.0042</t>
+  </si>
+  <si>
+    <t>0.6861±0.042</t>
+  </si>
+  <si>
+    <t>0.4935±0.0125</t>
+  </si>
+  <si>
+    <t>0.487±0.0083</t>
+  </si>
+  <si>
+    <t>0.8367±0.0073</t>
+  </si>
+  <si>
+    <t>0.5734±0.0137</t>
+  </si>
+  <si>
+    <t>0.6479±0.0034</t>
+  </si>
+  <si>
+    <t>0.4894±0.005</t>
+  </si>
+  <si>
+    <t>0.4079±0.0025</t>
+  </si>
+  <si>
+    <t>0.3729±0.0063</t>
+  </si>
+  <si>
+    <t>0.7687±0.0069</t>
+  </si>
+  <si>
+    <t>0.4449±0.0025</t>
+  </si>
+  <si>
+    <t>0.6589±0.0049</t>
+  </si>
+  <si>
+    <t>0.5201±0.0055</t>
+  </si>
+  <si>
+    <t>0.3979±0.0042</t>
+  </si>
+  <si>
+    <t>0.3889±0.0104</t>
+  </si>
+  <si>
+    <t>0.7954±0.0086</t>
+  </si>
+  <si>
+    <t>0.4509±0.0038</t>
+  </si>
+  <si>
+    <t>0.6565±0.0039</t>
+  </si>
+  <si>
+    <t>0.5207±0.0081</t>
+  </si>
+  <si>
+    <t>0.3953±0.0031</t>
+  </si>
+  <si>
+    <t>0.384±0.0083</t>
+  </si>
+  <si>
+    <t>0.7974±0.0086</t>
+  </si>
+  <si>
+    <t>0.4494±0.004</t>
+  </si>
+  <si>
+    <t>0.6872±0.0044</t>
+  </si>
+  <si>
+    <t>0.6082±0.0286</t>
+  </si>
+  <si>
+    <t>0.4642±0.0058</t>
+  </si>
+  <si>
+    <t>0.4517±0.0085</t>
+  </si>
+  <si>
+    <t>0.8353±0.0055</t>
+  </si>
+  <si>
+    <t>0.5263±0.0131</t>
+  </si>
+  <si>
+    <t>0.6862±0.0064</t>
+  </si>
+  <si>
+    <t>0.6012±0.0341</t>
+  </si>
+  <si>
+    <t>0.4668±0.0076</t>
+  </si>
+  <si>
+    <t>0.4504±0.0118</t>
+  </si>
+  <si>
+    <t>0.8349±0.0047</t>
+  </si>
+  <si>
+    <t>0.5253±0.017</t>
+  </si>
+  <si>
+    <t>0.6484±0.0054</t>
+  </si>
+  <si>
+    <t>0.5398±0.0172</t>
+  </si>
+  <si>
+    <t>0.5128±0.0128</t>
+  </si>
+  <si>
+    <t>0.8105±0.0053</t>
+  </si>
+  <si>
+    <t>0.5258±0.0103</t>
+  </si>
+  <si>
+    <t>0.4764±0.0089</t>
+  </si>
+  <si>
+    <t>0.4208±0.0095</t>
+  </si>
+  <si>
+    <t>0.5096±0.0177</t>
+  </si>
+  <si>
+    <t>0.274±0.0125</t>
+  </si>
+  <si>
+    <t>0.7479±0.0077</t>
+  </si>
+  <si>
+    <t>0.4609±0.0123</t>
+  </si>
+  <si>
+    <t>0.5917±0.005</t>
+  </si>
+  <si>
+    <t>0.475±0.0108</t>
+  </si>
+  <si>
+    <t>0.4619±0.0083</t>
+  </si>
+  <si>
+    <t>0.3401±0.0089</t>
+  </si>
+  <si>
+    <t>0.6413±0.0056</t>
+  </si>
+  <si>
+    <t>0.4684±0.0091</t>
+  </si>
+  <si>
+    <t>0.5116±0.007</t>
+  </si>
+  <si>
+    <t>0.3616±0.0097</t>
+  </si>
+  <si>
+    <t>0.3642±0.0098</t>
+  </si>
+  <si>
+    <t>0.2018±0.0102</t>
+  </si>
+  <si>
+    <t>0.577±0.0064</t>
+  </si>
+  <si>
+    <t>0.3629±0.0097</t>
+  </si>
+  <si>
+    <t>0.6445±0.0073</t>
+  </si>
+  <si>
+    <t>0.5384±0.0195</t>
+  </si>
+  <si>
+    <t>0.44±0.0134</t>
+  </si>
+  <si>
+    <t>0.3734±0.0137</t>
+  </si>
+  <si>
+    <t>0.8186±0.0046</t>
+  </si>
+  <si>
+    <t>0.4842±0.0155</t>
+  </si>
+  <si>
+    <t>0.6096±0.0047</t>
+  </si>
+  <si>
+    <t>0.4444±0.007</t>
+  </si>
+  <si>
+    <t>0.3596±0.0028</t>
+  </si>
+  <si>
+    <t>0.2852±0.0097</t>
+  </si>
+  <si>
+    <t>0.7915±0.0046</t>
+  </si>
+  <si>
+    <t>0.3975±0.004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5036,7 +5038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa9d18e"/>
+        <fgColor rgb="FFA9D18E"/>
       </patternFill>
     </fill>
   </fills>
@@ -5057,16 +5059,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5075,31 +5077,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5110,10 +5111,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5151,71 +5152,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5243,7 +5244,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -5266,11 +5267,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -5279,13 +5280,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5295,7 +5296,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5304,7 +5305,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5313,7 +5314,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5321,10 +5322,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -5389,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5399,23 +5400,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5435,7 +5423,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -5475,511 +5463,511 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1534</v>
+        <v>1390</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1535</v>
+        <v>1391</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1536</v>
+        <v>1392</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1537</v>
+        <v>1393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1538</v>
+        <v>1394</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1539</v>
+        <v>1395</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>1540</v>
+        <v>1396</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1541</v>
+        <v>1397</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1542</v>
+        <v>1398</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1543</v>
+        <v>1399</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1544</v>
+        <v>1400</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1546</v>
+        <v>1402</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1547</v>
+        <v>1403</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1548</v>
+        <v>1404</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1549</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1550</v>
+        <v>1406</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1551</v>
+        <v>1407</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>1552</v>
+        <v>1408</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1553</v>
+        <v>1409</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1554</v>
+        <v>1410</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1555</v>
+        <v>1411</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1556</v>
+        <v>1412</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1534</v>
+        <v>1390</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1558</v>
+        <v>1414</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1454</v>
+        <v>1310</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1559</v>
+        <v>1415</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1560</v>
+        <v>1416</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1561</v>
+        <v>1417</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>1295</v>
+        <v>1151</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1562</v>
+        <v>1418</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1563</v>
+        <v>1419</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1564</v>
+        <v>1420</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1556</v>
+        <v>1412</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1565</v>
+        <v>1421</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1566</v>
+        <v>1422</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1567</v>
+        <v>1423</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1568</v>
+        <v>1424</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1569</v>
+        <v>1425</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1570</v>
+        <v>1426</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>1327</v>
+        <v>1183</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1571</v>
+        <v>1427</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1572</v>
+        <v>1428</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1573</v>
+        <v>1429</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1574</v>
+        <v>1430</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1576</v>
+        <v>1432</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1577</v>
+        <v>1433</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1578</v>
+        <v>1434</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1579</v>
+        <v>1435</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1580</v>
+        <v>1436</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1581</v>
+        <v>1437</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>1582</v>
+        <v>1438</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1583</v>
+        <v>1439</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1584</v>
+        <v>1440</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1585</v>
+        <v>1441</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1586</v>
+        <v>1442</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1413</v>
+        <v>1269</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1588</v>
+        <v>1444</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1589</v>
+        <v>1445</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1590</v>
+        <v>1446</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1216</v>
+        <v>1072</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1591</v>
+        <v>1447</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>1161</v>
+        <v>1017</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1592</v>
+        <v>1448</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1593</v>
+        <v>1449</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1572</v>
+        <v>1428</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1222</v>
+        <v>1078</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1595</v>
+        <v>1451</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1596</v>
+        <v>1452</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1597</v>
+        <v>1453</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1598</v>
+        <v>1454</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1599</v>
+        <v>1455</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1589</v>
+        <v>1445</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>628</v>
+        <v>484</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1600</v>
+        <v>1456</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1601</v>
+        <v>1457</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>583</v>
+        <v>439</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1602</v>
+        <v>1458</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1604</v>
+        <v>1460</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1605</v>
+        <v>1461</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1606</v>
+        <v>1462</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1607</v>
+        <v>1463</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1608</v>
+        <v>1464</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1609</v>
+        <v>1465</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>1610</v>
+        <v>1466</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1611</v>
+        <v>1467</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1612</v>
+        <v>1468</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1500</v>
+        <v>1356</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1613</v>
+        <v>1469</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1615</v>
+        <v>1471</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1616</v>
+        <v>1472</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1617</v>
+        <v>1473</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1618</v>
+        <v>1474</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1250</v>
+        <v>1106</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>1619</v>
+        <v>1475</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1620</v>
+        <v>1476</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1621</v>
+        <v>1477</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1622</v>
+        <v>1478</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1623</v>
+        <v>1479</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1625</v>
+        <v>1481</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1626</v>
+        <v>1482</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1627</v>
+        <v>1483</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1628</v>
+        <v>1484</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1629</v>
+        <v>1485</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1630</v>
+        <v>1486</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>1631</v>
+        <v>1487</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1632</v>
+        <v>1488</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1633</v>
+        <v>1489</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1634</v>
+        <v>1490</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1635</v>
+        <v>1491</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1637</v>
+        <v>1493</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1638</v>
+        <v>1494</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1126</v>
+        <v>982</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1639</v>
+        <v>1495</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1406</v>
+        <v>1262</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1640</v>
+        <v>1496</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1641</v>
+        <v>1497</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1642</v>
+        <v>1498</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1643</v>
+        <v>1499</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1143</v>
+        <v>999</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1644</v>
+        <v>1500</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1646</v>
+        <v>1502</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1647</v>
+        <v>1503</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1648</v>
+        <v>1504</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1649</v>
+        <v>1505</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1650</v>
+        <v>1506</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1651</v>
+        <v>1507</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>1652</v>
+        <v>1508</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1151</v>
+        <v>1007</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1653</v>
+        <v>1509</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1654</v>
+        <v>1510</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1655</v>
+        <v>1511</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5995,7 +5983,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6011,7 +5999,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6027,7 +6015,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6043,7 +6031,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6059,7 +6047,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6075,7 +6063,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6091,7 +6079,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6107,7 +6095,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6123,7 +6111,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6145,33 +6133,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6191,7 +6168,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -6231,508 +6208,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>365</v>
+      <c r="B3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1518</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="I3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>377</v>
+      <c r="B4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1524</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="I4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>389</v>
+      <c r="B5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1530</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="I5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>401</v>
+      <c r="B6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1536</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="I6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>413</v>
+      <c r="B7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1542</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="I7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>425</v>
+      <c r="B8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1548</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="I8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1618</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>437</v>
+      <c r="B9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1554</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="I9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>449</v>
+      <c r="B10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1560</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="I10" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>461</v>
+      <c r="B11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1566</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="I11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>473</v>
+      <c r="B12" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1572</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="I12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>485</v>
+      <c r="B13" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1578</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="I13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1647</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>497</v>
+      <c r="B14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1584</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>503</v>
+      <c r="I14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1655</v>
       </c>
     </row>
   </sheetData>
@@ -6741,7 +6718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6751,24 +6728,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="15" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6752,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -6830,7 +6793,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -6873,7 +6836,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6916,7 +6879,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -6959,7 +6922,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -7002,7 +6965,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -7045,7 +7008,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -7088,7 +7051,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -7131,7 +7094,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -7174,7 +7137,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -7217,7 +7180,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -7260,7 +7223,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -7303,7 +7266,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -7346,7 +7309,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7363,7 +7326,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7380,7 +7343,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7397,7 +7360,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7414,7 +7377,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7431,7 +7394,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7448,7 +7411,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7465,7 +7428,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7482,7 +7445,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7499,7 +7462,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -7516,7 +7479,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -7533,7 +7496,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -7550,7 +7513,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -7567,7 +7530,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -7584,7 +7547,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -7607,7 +7570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7617,23 +7580,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7653,7 +7603,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -7693,7 +7643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7735,7 +7685,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7777,7 +7727,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -7819,7 +7769,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -7861,7 +7811,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -7903,7 +7853,7 @@
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -7945,7 +7895,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -7987,7 +7937,7 @@
         <v>247</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -8029,7 +7979,7 @@
         <v>259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -8071,7 +8021,7 @@
         <v>271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -8113,7 +8063,7 @@
         <v>283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -8155,7 +8105,7 @@
         <v>295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -8203,7 +8153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8213,23 +8163,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8249,7 +8186,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -8289,7 +8226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8331,7 +8268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8373,7 +8310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -8415,7 +8352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -8457,7 +8394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -8499,7 +8436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -8541,7 +8478,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -8583,7 +8520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -8625,7 +8562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -8667,7 +8604,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -8709,7 +8646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -8751,7 +8688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -8799,7 +8736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8809,23 +8746,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8845,7 +8769,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -8885,7 +8809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8927,7 +8851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8969,7 +8893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -9011,7 +8935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -9053,7 +8977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -9095,7 +9019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -9137,7 +9061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -9179,7 +9103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -9221,7 +9145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -9263,7 +9187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -9305,7 +9229,7 @@
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -9347,7 +9271,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -9395,7 +9319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -9405,23 +9329,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9441,7 +9357,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -9481,511 +9397,511 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1413</v>
+        <v>1269</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1414</v>
+        <v>1270</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1415</v>
+        <v>1271</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1416</v>
+        <v>1272</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1169</v>
+        <v>1025</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1417</v>
+        <v>1273</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>1418</v>
+        <v>1274</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1419</v>
+        <v>1275</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>633</v>
+        <v>489</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1420</v>
+        <v>1276</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1421</v>
+        <v>1277</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1423</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1424</v>
+        <v>1280</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1425</v>
+        <v>1281</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1260</v>
+        <v>1116</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1426</v>
+        <v>1282</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1427</v>
+        <v>1283</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>769</v>
+        <v>625</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1428</v>
+        <v>1284</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1429</v>
+        <v>1285</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1430</v>
+        <v>1286</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1431</v>
+        <v>1287</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1433</v>
+        <v>1289</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1434</v>
+        <v>1290</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1435</v>
+        <v>1291</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1436</v>
+        <v>1292</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1437</v>
+        <v>1293</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1438</v>
+        <v>1294</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>1439</v>
+        <v>1295</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1440</v>
+        <v>1296</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>652</v>
+        <v>508</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1209</v>
+        <v>1065</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1441</v>
+        <v>1297</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1443</v>
+        <v>1299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1444</v>
+        <v>1300</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1445</v>
+        <v>1301</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>564</v>
+        <v>420</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1446</v>
+        <v>1302</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>567</v>
+        <v>423</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>1447</v>
+        <v>1303</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1448</v>
+        <v>1304</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1449</v>
+        <v>1305</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1196</v>
+        <v>1052</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1450</v>
+        <v>1306</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1452</v>
+        <v>1308</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1453</v>
+        <v>1309</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1454</v>
+        <v>1310</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1455</v>
+        <v>1311</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1204</v>
+        <v>1060</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1456</v>
+        <v>1312</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>1206</v>
+        <v>1062</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1457</v>
+        <v>1313</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1458</v>
+        <v>1314</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1341</v>
+        <v>1197</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1460</v>
+        <v>1316</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1461</v>
+        <v>1317</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1462</v>
+        <v>1318</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1345</v>
+        <v>1201</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1463</v>
+        <v>1319</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1464</v>
+        <v>1320</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>1465</v>
+        <v>1321</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>651</v>
+        <v>507</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1466</v>
+        <v>1322</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1467</v>
+        <v>1323</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1468</v>
+        <v>1324</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1470</v>
+        <v>1326</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1471</v>
+        <v>1327</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1472</v>
+        <v>1328</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1473</v>
+        <v>1329</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1474</v>
+        <v>1330</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1475</v>
+        <v>1331</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>1476</v>
+        <v>1332</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1477</v>
+        <v>1333</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1478</v>
+        <v>1334</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1479</v>
+        <v>1335</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1298</v>
+        <v>1154</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1481</v>
+        <v>1337</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1482</v>
+        <v>1338</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1483</v>
+        <v>1339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1484</v>
+        <v>1340</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1485</v>
+        <v>1341</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1486</v>
+        <v>1342</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>1487</v>
+        <v>1343</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1488</v>
+        <v>1344</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1489</v>
+        <v>1345</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1490</v>
+        <v>1346</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1491</v>
+        <v>1347</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1493</v>
+        <v>1349</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1494</v>
+        <v>1350</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1495</v>
+        <v>1351</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1496</v>
+        <v>1352</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1497</v>
+        <v>1353</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1498</v>
+        <v>1354</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>1499</v>
+        <v>1355</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>912</v>
+        <v>768</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1500</v>
+        <v>1356</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1501</v>
+        <v>1357</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1502</v>
+        <v>1358</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1503</v>
+        <v>1359</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1504</v>
+        <v>1360</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1505</v>
+        <v>1361</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1506</v>
+        <v>1362</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1507</v>
+        <v>1363</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1508</v>
+        <v>1364</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>1509</v>
+        <v>1365</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1510</v>
+        <v>1366</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>539</v>
+        <v>395</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1511</v>
+        <v>1367</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1512</v>
+        <v>1368</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1514</v>
+        <v>1370</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1515</v>
+        <v>1371</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1516</v>
+        <v>1372</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1383</v>
+        <v>1239</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1517</v>
+        <v>1373</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1518</v>
+        <v>1374</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1519</v>
+        <v>1375</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1520</v>
+        <v>1376</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1521</v>
+        <v>1377</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1370</v>
+        <v>1226</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1522</v>
+        <v>1378</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1524</v>
+        <v>1380</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1525</v>
+        <v>1381</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1526</v>
+        <v>1382</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1527</v>
+        <v>1383</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1528</v>
+        <v>1384</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1529</v>
+        <v>1385</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>1284</v>
+        <v>1140</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1530</v>
+        <v>1386</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1531</v>
+        <v>1387</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1532</v>
+        <v>1388</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1411</v>
+        <v>1267</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -10001,7 +9917,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -10017,7 +9933,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10033,7 +9949,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -10049,7 +9965,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -10065,7 +9981,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -10081,7 +9997,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -10103,7 +10019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -10113,23 +10029,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10149,7 +10052,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -10189,508 +10092,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1289</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1290</v>
+        <v>1146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1291</v>
+        <v>1147</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1292</v>
+        <v>1148</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1293</v>
+        <v>1149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1294</v>
+        <v>1150</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>1295</v>
+        <v>1151</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1016</v>
+        <v>872</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1296</v>
+        <v>1152</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1297</v>
+        <v>1153</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1298</v>
+        <v>1154</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1300</v>
+        <v>1156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1301</v>
+        <v>1157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1302</v>
+        <v>1158</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1291</v>
+        <v>1147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1303</v>
+        <v>1159</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1304</v>
+        <v>1160</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>1305</v>
+        <v>1161</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1306</v>
+        <v>1162</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1307</v>
+        <v>1163</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1308</v>
+        <v>1164</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1289</v>
+        <v>1145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1310</v>
+        <v>1166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1311</v>
+        <v>1167</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1312</v>
+        <v>1168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1313</v>
+        <v>1169</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1314</v>
+        <v>1170</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>1315</v>
+        <v>1171</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1316</v>
+        <v>1172</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1317</v>
+        <v>1173</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1318</v>
+        <v>1174</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1319</v>
+        <v>1175</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1321</v>
+        <v>1177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1322</v>
+        <v>1178</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1323</v>
+        <v>1179</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1324</v>
+        <v>1180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1325</v>
+        <v>1181</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1326</v>
+        <v>1182</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>1327</v>
+        <v>1183</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1328</v>
+        <v>1184</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1329</v>
+        <v>1185</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1330</v>
+        <v>1186</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1331</v>
+        <v>1187</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1333</v>
+        <v>1189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1334</v>
+        <v>1190</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1335</v>
+        <v>1191</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1336</v>
+        <v>1192</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1204</v>
+        <v>1060</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1337</v>
+        <v>1193</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>1338</v>
+        <v>1194</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1339</v>
+        <v>1195</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>766</v>
+        <v>622</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1340</v>
+        <v>1196</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1341</v>
+        <v>1197</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1342</v>
+        <v>1198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1343</v>
+        <v>1199</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1344</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1345</v>
+        <v>1201</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1346</v>
+        <v>1202</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1347</v>
+        <v>1203</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>1348</v>
+        <v>1204</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1349</v>
+        <v>1205</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1173</v>
+        <v>1029</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>943</v>
+        <v>799</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1350</v>
+        <v>1206</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1352</v>
+        <v>1208</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1353</v>
+        <v>1209</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1354</v>
+        <v>1210</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1355</v>
+        <v>1211</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1356</v>
+        <v>1212</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>1207</v>
+        <v>1063</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1357</v>
+        <v>1213</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1358</v>
+        <v>1214</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1359</v>
+        <v>1215</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1360</v>
+        <v>1216</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1362</v>
+        <v>1218</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1363</v>
+        <v>1219</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1364</v>
+        <v>1220</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1365</v>
+        <v>1221</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1366</v>
+        <v>1222</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1367</v>
+        <v>1223</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>1368</v>
+        <v>1224</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1369</v>
+        <v>1225</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1370</v>
+        <v>1226</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>988</v>
+        <v>844</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1371</v>
+        <v>1227</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1373</v>
+        <v>1229</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>792</v>
+        <v>648</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1374</v>
+        <v>1230</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1375</v>
+        <v>1231</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1376</v>
+        <v>1232</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1377</v>
+        <v>1233</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>581</v>
+        <v>437</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>988</v>
+        <v>844</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1378</v>
+        <v>1234</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1379</v>
+        <v>1235</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1380</v>
+        <v>1236</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1382</v>
+        <v>1238</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1383</v>
+        <v>1239</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1384</v>
+        <v>1240</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1385</v>
+        <v>1241</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1386</v>
+        <v>1242</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1387</v>
+        <v>1243</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>1069</v>
+        <v>925</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1388</v>
+        <v>1244</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1389</v>
+        <v>1245</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1390</v>
+        <v>1246</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1391</v>
+        <v>1247</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1392</v>
+        <v>1248</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1393</v>
+        <v>1249</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1394</v>
+        <v>1250</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1395</v>
+        <v>1251</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1396</v>
+        <v>1252</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1397</v>
+        <v>1253</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1398</v>
+        <v>1254</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1399</v>
+        <v>1255</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1400</v>
+        <v>1256</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1401</v>
+        <v>1257</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>572</v>
+        <v>428</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1403</v>
+        <v>1259</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1404</v>
+        <v>1260</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>904</v>
+        <v>760</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1405</v>
+        <v>1261</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1406</v>
+        <v>1262</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1407</v>
+        <v>1263</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>1408</v>
+        <v>1264</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1409</v>
+        <v>1265</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>996</v>
+        <v>852</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1410</v>
+        <v>1266</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1411</v>
+        <v>1267</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1412</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -10699,7 +10602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -10709,23 +10612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +10635,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -10785,259 +10675,259 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1155</v>
+        <v>1011</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1156</v>
+        <v>1012</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1157</v>
+        <v>1013</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1158</v>
+        <v>1014</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1159</v>
+        <v>1015</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1160</v>
+        <v>1016</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>1161</v>
+        <v>1017</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1162</v>
+        <v>1018</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>513</v>
+        <v>369</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1163</v>
+        <v>1019</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1164</v>
+        <v>1020</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1166</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1167</v>
+        <v>1023</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1168</v>
+        <v>1024</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1169</v>
+        <v>1025</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1170</v>
+        <v>1026</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>1171</v>
+        <v>1027</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1172</v>
+        <v>1028</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1173</v>
+        <v>1029</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1174</v>
+        <v>1030</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1176</v>
+        <v>1032</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1177</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1178</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1179</v>
+        <v>1035</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1180</v>
+        <v>1036</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1181</v>
+        <v>1037</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>1182</v>
+        <v>1038</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1183</v>
+        <v>1039</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1184</v>
+        <v>1040</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1185</v>
+        <v>1041</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1186</v>
+        <v>1042</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1188</v>
+        <v>1044</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1189</v>
+        <v>1045</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1190</v>
+        <v>1046</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1191</v>
+        <v>1047</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1192</v>
+        <v>1048</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1193</v>
+        <v>1049</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>1194</v>
+        <v>1050</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1195</v>
+        <v>1051</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1196</v>
+        <v>1052</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1197</v>
+        <v>1053</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1198</v>
+        <v>1054</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1200</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1201</v>
+        <v>1057</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1202</v>
+        <v>1058</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1203</v>
+        <v>1059</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1204</v>
+        <v>1060</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1205</v>
+        <v>1061</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>1206</v>
+        <v>1062</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1207</v>
+        <v>1063</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1208</v>
+        <v>1064</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1209</v>
+        <v>1065</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1210</v>
+        <v>1066</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1212</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1213</v>
+        <v>1069</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1214</v>
+        <v>1070</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1215</v>
+        <v>1071</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1216</v>
+        <v>1072</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1217</v>
+        <v>1073</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>1218</v>
+        <v>1074</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1219</v>
+        <v>1075</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1220</v>
+        <v>1076</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1221</v>
+        <v>1077</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1222</v>
+        <v>1078</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -11045,248 +10935,248 @@
         <v>300</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1224</v>
+        <v>1080</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1225</v>
+        <v>1081</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1226</v>
+        <v>1082</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1227</v>
+        <v>1083</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1228</v>
+        <v>1084</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>902</v>
+        <v>758</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1229</v>
+        <v>1085</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1230</v>
+        <v>1086</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1231</v>
+        <v>1087</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1232</v>
+        <v>1088</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1234</v>
+        <v>1090</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1235</v>
+        <v>1091</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1236</v>
+        <v>1092</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1237</v>
+        <v>1093</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1238</v>
+        <v>1094</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1239</v>
+        <v>1095</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1240</v>
+        <v>1096</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1241</v>
+        <v>1097</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1242</v>
+        <v>1098</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1243</v>
+        <v>1099</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1245</v>
+        <v>1101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1246</v>
+        <v>1102</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1247</v>
+        <v>1103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1248</v>
+        <v>1104</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1249</v>
+        <v>1105</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1250</v>
+        <v>1106</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>1251</v>
+        <v>1107</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1252</v>
+        <v>1108</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1253</v>
+        <v>1109</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1254</v>
+        <v>1110</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1255</v>
+        <v>1111</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>967</v>
+        <v>823</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1158</v>
+        <v>1014</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1257</v>
+        <v>1113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1258</v>
+        <v>1114</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1259</v>
+        <v>1115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1260</v>
+        <v>1116</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>1261</v>
+        <v>1117</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1262</v>
+        <v>1118</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1263</v>
+        <v>1119</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1264</v>
+        <v>1120</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1265</v>
+        <v>1121</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1267</v>
+        <v>1123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1268</v>
+        <v>1124</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1269</v>
+        <v>1125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1270</v>
+        <v>1126</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1271</v>
+        <v>1127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1272</v>
+        <v>1128</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1273</v>
+        <v>1129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>983</v>
+        <v>839</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1274</v>
+        <v>1130</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1275</v>
+        <v>1131</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1276</v>
+        <v>1132</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1278</v>
+        <v>1134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1279</v>
+        <v>1135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1280</v>
+        <v>1136</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1281</v>
+        <v>1137</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1282</v>
+        <v>1138</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1283</v>
+        <v>1139</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>1284</v>
+        <v>1140</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1285</v>
+        <v>1141</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1286</v>
+        <v>1142</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1286</v>
+        <v>1142</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1287</v>
+        <v>1143</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1288</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -11295,7 +11185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -11305,23 +11195,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11341,7 +11225,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -11381,508 +11265,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1032</v>
+        <v>888</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1033</v>
+        <v>889</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1034</v>
+        <v>890</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1035</v>
+        <v>891</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1036</v>
+        <v>892</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1037</v>
+        <v>893</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>1038</v>
+        <v>894</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1039</v>
+        <v>895</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1040</v>
+        <v>896</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1041</v>
+        <v>897</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1042</v>
+        <v>898</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1044</v>
+        <v>900</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1045</v>
+        <v>901</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1046</v>
+        <v>902</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1047</v>
+        <v>903</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1048</v>
+        <v>904</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1049</v>
+        <v>905</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1050</v>
+        <v>906</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1051</v>
+        <v>907</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1052</v>
+        <v>908</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1053</v>
+        <v>909</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1054</v>
+        <v>910</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1055</v>
+        <v>911</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1056</v>
+        <v>912</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1057</v>
+        <v>913</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1058</v>
+        <v>914</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1059</v>
+        <v>915</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>1060</v>
+        <v>916</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1061</v>
+        <v>917</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1062</v>
+        <v>918</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>934</v>
+        <v>790</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1064</v>
+        <v>920</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1065</v>
+        <v>921</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>531</v>
+        <v>387</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1066</v>
+        <v>922</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1067</v>
+        <v>923</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1068</v>
+        <v>924</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>1069</v>
+        <v>925</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1070</v>
+        <v>926</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>921</v>
+        <v>777</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1071</v>
+        <v>927</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>1072</v>
+        <v>928</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1074</v>
+        <v>930</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1075</v>
+        <v>931</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>789</v>
+        <v>645</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1076</v>
+        <v>932</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1077</v>
+        <v>933</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1078</v>
+        <v>934</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>1079</v>
+        <v>935</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1080</v>
+        <v>936</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1081</v>
+        <v>937</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1083</v>
+        <v>939</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1084</v>
+        <v>940</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1085</v>
+        <v>941</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1086</v>
+        <v>942</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1087</v>
+        <v>943</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1088</v>
+        <v>944</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>673</v>
+        <v>529</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1089</v>
+        <v>945</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1090</v>
+        <v>946</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1091</v>
+        <v>947</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1093</v>
+        <v>949</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1094</v>
+        <v>950</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1095</v>
+        <v>951</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1096</v>
+        <v>952</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1097</v>
+        <v>953</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>1098</v>
+        <v>954</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1099</v>
+        <v>955</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1100</v>
+        <v>956</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1101</v>
+        <v>957</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>1102</v>
+        <v>958</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1103</v>
+        <v>959</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1104</v>
+        <v>960</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1105</v>
+        <v>961</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1106</v>
+        <v>962</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1107</v>
+        <v>963</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1108</v>
+        <v>964</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>1109</v>
+        <v>965</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1110</v>
+        <v>966</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>686</v>
+        <v>542</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1111</v>
+        <v>967</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1112</v>
+        <v>968</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1114</v>
+        <v>970</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1115</v>
+        <v>971</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1116</v>
+        <v>972</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1117</v>
+        <v>973</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1118</v>
+        <v>974</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1119</v>
+        <v>975</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>1120</v>
+        <v>976</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1121</v>
+        <v>977</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1122</v>
+        <v>978</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1123</v>
+        <v>979</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1124</v>
+        <v>980</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1125</v>
+        <v>981</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1126</v>
+        <v>982</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1012</v>
+        <v>868</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1127</v>
+        <v>983</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1128</v>
+        <v>984</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1129</v>
+        <v>985</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>604</v>
+        <v>460</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1130</v>
+        <v>986</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1131</v>
+        <v>987</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1132</v>
+        <v>988</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1133</v>
+        <v>989</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1135</v>
+        <v>991</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1136</v>
+        <v>992</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1137</v>
+        <v>993</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1138</v>
+        <v>994</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1139</v>
+        <v>995</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1140</v>
+        <v>996</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1141</v>
+        <v>997</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1142</v>
+        <v>998</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>641</v>
+        <v>497</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>805</v>
+        <v>661</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>987</v>
+        <v>843</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1144</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1145</v>
+        <v>1001</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1146</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1147</v>
+        <v>1003</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1148</v>
+        <v>1004</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1149</v>
+        <v>1005</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>1150</v>
+        <v>1006</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1151</v>
+        <v>1007</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1152</v>
+        <v>1008</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1041</v>
+        <v>897</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1153</v>
+        <v>1009</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1154</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -11891,7 +11775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -11901,23 +11785,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11937,7 +11812,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -11977,508 +11852,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>807</v>
+        <v>663</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>903</v>
+        <v>759</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>904</v>
+        <v>760</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>905</v>
+        <v>761</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>906</v>
+        <v>762</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>907</v>
+        <v>763</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>793</v>
+        <v>649</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>908</v>
+        <v>764</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>909</v>
+        <v>765</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>910</v>
+        <v>766</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>911</v>
+        <v>767</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>913</v>
+        <v>769</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>914</v>
+        <v>770</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>915</v>
+        <v>771</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>916</v>
+        <v>772</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>917</v>
+        <v>773</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>918</v>
+        <v>774</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>919</v>
+        <v>775</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>920</v>
+        <v>776</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>921</v>
+        <v>777</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>922</v>
+        <v>778</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>923</v>
+        <v>779</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>872</v>
+        <v>728</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>925</v>
+        <v>781</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>926</v>
+        <v>782</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>927</v>
+        <v>783</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>928</v>
+        <v>784</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>929</v>
+        <v>785</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>930</v>
+        <v>786</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>931</v>
+        <v>787</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>932</v>
+        <v>788</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>933</v>
+        <v>789</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>934</v>
+        <v>790</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>936</v>
+        <v>792</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>937</v>
+        <v>793</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>938</v>
+        <v>794</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>939</v>
+        <v>795</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>940</v>
+        <v>796</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>941</v>
+        <v>797</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>942</v>
+        <v>798</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>943</v>
+        <v>799</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>945</v>
+        <v>801</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>946</v>
+        <v>802</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>948</v>
+        <v>804</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>949</v>
+        <v>805</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>647</v>
+        <v>503</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>750</v>
+        <v>606</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>951</v>
+        <v>807</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>952</v>
+        <v>808</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>953</v>
+        <v>809</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>675</v>
+        <v>531</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>954</v>
+        <v>810</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>955</v>
+        <v>811</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>957</v>
+        <v>813</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>958</v>
+        <v>814</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>959</v>
+        <v>815</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>916</v>
+        <v>772</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>960</v>
+        <v>816</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>961</v>
+        <v>817</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>962</v>
+        <v>818</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>963</v>
+        <v>819</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>932</v>
+        <v>788</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>964</v>
+        <v>820</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>965</v>
+        <v>821</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>967</v>
+        <v>823</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>968</v>
+        <v>824</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>969</v>
+        <v>825</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>970</v>
+        <v>826</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>971</v>
+        <v>827</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>972</v>
+        <v>828</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>973</v>
+        <v>829</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>974</v>
+        <v>830</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>883</v>
+        <v>739</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>975</v>
+        <v>831</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>976</v>
+        <v>832</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>983</v>
+        <v>839</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>984</v>
+        <v>840</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>985</v>
+        <v>841</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>986</v>
+        <v>842</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>987</v>
+        <v>843</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>989</v>
+        <v>845</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>990</v>
+        <v>846</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>991</v>
+        <v>847</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>992</v>
+        <v>848</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>993</v>
+        <v>849</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>994</v>
+        <v>850</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>995</v>
+        <v>851</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>996</v>
+        <v>852</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>997</v>
+        <v>853</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>998</v>
+        <v>854</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>999</v>
+        <v>855</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1001</v>
+        <v>857</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1002</v>
+        <v>858</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1003</v>
+        <v>859</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1004</v>
+        <v>860</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1005</v>
+        <v>861</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>1006</v>
+        <v>862</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1007</v>
+        <v>863</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1008</v>
+        <v>864</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1009</v>
+        <v>865</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1010</v>
+        <v>866</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>712</v>
+        <v>568</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1011</v>
+        <v>867</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1012</v>
+        <v>868</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1013</v>
+        <v>869</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1014</v>
+        <v>870</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1015</v>
+        <v>871</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>1016</v>
+        <v>872</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1017</v>
+        <v>873</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1018</v>
+        <v>874</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1019</v>
+        <v>875</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1020</v>
+        <v>876</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1021</v>
+        <v>877</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1022</v>
+        <v>878</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1023</v>
+        <v>879</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1024</v>
+        <v>880</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1025</v>
+        <v>881</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1026</v>
+        <v>882</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>793</v>
+        <v>649</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1027</v>
+        <v>883</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1028</v>
+        <v>884</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1029</v>
+        <v>885</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1030</v>
+        <v>886</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1031</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -12487,7 +12362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -12497,23 +12372,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12533,7 +12395,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -12573,508 +12435,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>779</v>
+        <v>635</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>553</v>
+        <v>409</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>780</v>
+        <v>636</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>781</v>
+        <v>637</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>783</v>
+        <v>639</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>753</v>
+        <v>609</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>784</v>
+        <v>640</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>731</v>
+        <v>587</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>785</v>
+        <v>641</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>786</v>
+        <v>642</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>689</v>
+        <v>545</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>788</v>
+        <v>644</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>789</v>
+        <v>645</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>790</v>
+        <v>646</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>791</v>
+        <v>647</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>792</v>
+        <v>648</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>793</v>
+        <v>649</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>794</v>
+        <v>650</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>696</v>
+        <v>552</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>795</v>
+        <v>651</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>796</v>
+        <v>652</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>798</v>
+        <v>654</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>799</v>
+        <v>655</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>800</v>
+        <v>656</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>801</v>
+        <v>657</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>802</v>
+        <v>658</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>803</v>
+        <v>659</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>729</v>
+        <v>585</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>804</v>
+        <v>660</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>767</v>
+        <v>623</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>805</v>
+        <v>661</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>807</v>
+        <v>663</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>808</v>
+        <v>664</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>809</v>
+        <v>665</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>810</v>
+        <v>666</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>811</v>
+        <v>667</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>812</v>
+        <v>668</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>814</v>
+        <v>670</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>815</v>
+        <v>671</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>816</v>
+        <v>672</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>818</v>
+        <v>674</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>819</v>
+        <v>675</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>820</v>
+        <v>676</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>821</v>
+        <v>677</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>682</v>
+        <v>538</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>822</v>
+        <v>678</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>823</v>
+        <v>679</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>824</v>
+        <v>680</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>825</v>
+        <v>681</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>826</v>
+        <v>682</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>689</v>
+        <v>545</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>828</v>
+        <v>684</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>829</v>
+        <v>685</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>692</v>
+        <v>548</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>830</v>
+        <v>686</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>831</v>
+        <v>687</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>832</v>
+        <v>688</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>833</v>
+        <v>689</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>834</v>
+        <v>690</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>835</v>
+        <v>691</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>836</v>
+        <v>692</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>838</v>
+        <v>694</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>839</v>
+        <v>695</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>840</v>
+        <v>696</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>841</v>
+        <v>697</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>704</v>
+        <v>560</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>842</v>
+        <v>698</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>843</v>
+        <v>699</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>844</v>
+        <v>700</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>845</v>
+        <v>701</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>846</v>
+        <v>702</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>847</v>
+        <v>703</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>849</v>
+        <v>705</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>850</v>
+        <v>706</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>851</v>
+        <v>707</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>852</v>
+        <v>708</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>853</v>
+        <v>709</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>854</v>
+        <v>710</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>855</v>
+        <v>711</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>856</v>
+        <v>712</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>857</v>
+        <v>713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>858</v>
+        <v>714</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>860</v>
+        <v>716</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>861</v>
+        <v>717</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>862</v>
+        <v>718</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>863</v>
+        <v>719</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>865</v>
+        <v>721</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>866</v>
+        <v>722</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>867</v>
+        <v>723</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>868</v>
+        <v>724</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>869</v>
+        <v>725</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>870</v>
+        <v>726</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>872</v>
+        <v>728</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>873</v>
+        <v>729</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>874</v>
+        <v>730</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>875</v>
+        <v>731</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>876</v>
+        <v>732</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>877</v>
+        <v>733</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>878</v>
+        <v>734</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>879</v>
+        <v>735</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>880</v>
+        <v>736</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>881</v>
+        <v>737</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>882</v>
+        <v>738</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>884</v>
+        <v>740</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>885</v>
+        <v>741</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>886</v>
+        <v>742</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>887</v>
+        <v>743</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>888</v>
+        <v>744</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>889</v>
+        <v>745</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>890</v>
+        <v>746</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>891</v>
+        <v>747</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>893</v>
+        <v>749</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>677</v>
+        <v>533</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>894</v>
+        <v>750</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>895</v>
+        <v>751</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>896</v>
+        <v>752</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>897</v>
+        <v>753</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>682</v>
+        <v>538</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>898</v>
+        <v>754</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>899</v>
+        <v>755</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>900</v>
+        <v>756</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>901</v>
+        <v>757</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>902</v>
+        <v>758</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>678</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -13083,7 +12945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -13093,23 +12955,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13129,7 +12978,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -13169,508 +13018,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>645</v>
+        <v>501</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>646</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>647</v>
+        <v>503</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>648</v>
+        <v>504</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>649</v>
+        <v>505</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>650</v>
+        <v>506</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>651</v>
+        <v>507</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>652</v>
+        <v>508</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>653</v>
+        <v>509</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>654</v>
+        <v>510</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>655</v>
+        <v>511</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>645</v>
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>656</v>
+        <v>512</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>657</v>
+        <v>513</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>658</v>
+        <v>514</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>659</v>
+        <v>515</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>660</v>
+        <v>516</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>661</v>
+        <v>517</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>662</v>
+        <v>518</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>663</v>
+        <v>519</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>664</v>
+        <v>520</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>665</v>
+        <v>521</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>667</v>
+        <v>523</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>668</v>
+        <v>524</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>669</v>
+        <v>525</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>670</v>
+        <v>526</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>671</v>
+        <v>527</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>672</v>
+        <v>528</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>673</v>
+        <v>529</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>674</v>
+        <v>530</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>675</v>
+        <v>531</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>676</v>
+        <v>532</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>677</v>
+        <v>533</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>667</v>
+        <v>523</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>679</v>
+        <v>535</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>680</v>
+        <v>536</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>681</v>
+        <v>537</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>682</v>
+        <v>538</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>683</v>
+        <v>539</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>684</v>
+        <v>540</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>685</v>
+        <v>541</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>686</v>
+        <v>542</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>687</v>
+        <v>543</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>688</v>
+        <v>544</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>689</v>
+        <v>545</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>690</v>
+        <v>546</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>691</v>
+        <v>547</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>692</v>
+        <v>548</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>693</v>
+        <v>549</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>694</v>
+        <v>550</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>651</v>
+        <v>507</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>695</v>
+        <v>551</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>696</v>
+        <v>552</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>697</v>
+        <v>553</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>702</v>
+        <v>558</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>703</v>
+        <v>559</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>704</v>
+        <v>560</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>705</v>
+        <v>561</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>707</v>
+        <v>563</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>708</v>
+        <v>564</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>709</v>
+        <v>565</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>710</v>
+        <v>566</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>712</v>
+        <v>568</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>713</v>
+        <v>569</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>714</v>
+        <v>570</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>715</v>
+        <v>571</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>716</v>
+        <v>572</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>717</v>
+        <v>573</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>718</v>
+        <v>574</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>719</v>
+        <v>575</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>653</v>
+        <v>509</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>723</v>
+        <v>579</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>724</v>
+        <v>580</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>725</v>
+        <v>581</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>726</v>
+        <v>582</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>727</v>
+        <v>583</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>728</v>
+        <v>584</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>729</v>
+        <v>585</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>730</v>
+        <v>586</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>731</v>
+        <v>587</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>732</v>
+        <v>588</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>735</v>
+        <v>591</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>736</v>
+        <v>592</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>737</v>
+        <v>593</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>738</v>
+        <v>594</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>739</v>
+        <v>595</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>740</v>
+        <v>596</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>741</v>
+        <v>597</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>745</v>
+        <v>601</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>747</v>
+        <v>603</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>748</v>
+        <v>604</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>749</v>
+        <v>605</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>750</v>
+        <v>606</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>751</v>
+        <v>607</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>752</v>
+        <v>608</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>753</v>
+        <v>609</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>754</v>
+        <v>610</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>759</v>
+        <v>615</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>760</v>
+        <v>616</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>761</v>
+        <v>617</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>762</v>
+        <v>618</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>763</v>
+        <v>619</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>764</v>
+        <v>620</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>765</v>
+        <v>621</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>766</v>
+        <v>622</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>767</v>
+        <v>623</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>768</v>
+        <v>624</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>769</v>
+        <v>625</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>645</v>
+        <v>501</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>770</v>
+        <v>626</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>771</v>
+        <v>627</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>772</v>
+        <v>628</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>773</v>
+        <v>629</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>774</v>
+        <v>630</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>651</v>
+        <v>507</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>775</v>
+        <v>631</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>653</v>
+        <v>509</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>777</v>
+        <v>633</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>778</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -13679,33 +13528,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="14" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13725,7 +13561,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -13765,508 +13601,508 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>505</v>
+        <v>361</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>506</v>
+        <v>362</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>507</v>
+        <v>363</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>508</v>
+        <v>364</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>509</v>
+        <v>365</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>510</v>
+        <v>366</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>511</v>
+        <v>367</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>512</v>
+        <v>368</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>513</v>
+        <v>369</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>516</v>
+        <v>372</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>517</v>
+        <v>373</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>518</v>
+        <v>374</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>375</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>523</v>
+        <v>379</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>524</v>
+        <v>380</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>525</v>
+        <v>381</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>526</v>
+        <v>382</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>528</v>
+        <v>384</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>529</v>
+        <v>385</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>530</v>
+        <v>386</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>531</v>
+        <v>387</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>533</v>
+        <v>389</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>534</v>
+        <v>390</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>535</v>
+        <v>391</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>536</v>
+        <v>392</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>537</v>
+        <v>393</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>538</v>
+        <v>394</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>540</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>542</v>
+        <v>398</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>543</v>
+        <v>399</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>545</v>
+        <v>401</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>546</v>
+        <v>402</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>547</v>
+        <v>403</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>548</v>
+        <v>404</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>525</v>
+        <v>381</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>549</v>
+        <v>405</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>551</v>
+        <v>407</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>552</v>
+        <v>408</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>553</v>
+        <v>409</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>554</v>
+        <v>410</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>555</v>
+        <v>411</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>556</v>
+        <v>412</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>557</v>
+        <v>413</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>558</v>
+        <v>414</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>559</v>
+        <v>415</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>551</v>
+        <v>407</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>563</v>
+        <v>419</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>564</v>
+        <v>420</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>565</v>
+        <v>421</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>566</v>
+        <v>422</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>567</v>
+        <v>423</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>568</v>
+        <v>424</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>570</v>
+        <v>426</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>571</v>
+        <v>427</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>572</v>
+        <v>428</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>574</v>
+        <v>430</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>575</v>
+        <v>431</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>577</v>
+        <v>433</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>578</v>
+        <v>434</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>580</v>
+        <v>436</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>581</v>
+        <v>437</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>583</v>
+        <v>439</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>586</v>
+        <v>442</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>587</v>
+        <v>443</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>588</v>
+        <v>444</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>589</v>
+        <v>445</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>590</v>
+        <v>446</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>592</v>
+        <v>448</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>594</v>
+        <v>450</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>595</v>
+        <v>451</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>596</v>
+        <v>452</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>598</v>
+        <v>454</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>599</v>
+        <v>455</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>600</v>
+        <v>456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>601</v>
+        <v>457</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>603</v>
+        <v>459</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>604</v>
+        <v>460</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>608</v>
+        <v>464</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>610</v>
+        <v>466</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>611</v>
+        <v>467</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>612</v>
+        <v>468</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>617</v>
+        <v>473</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>618</v>
+        <v>474</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>619</v>
+        <v>475</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>620</v>
+        <v>476</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>622</v>
+        <v>478</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>623</v>
+        <v>479</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>624</v>
+        <v>480</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>625</v>
+        <v>481</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>626</v>
+        <v>482</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>627</v>
+        <v>483</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>628</v>
+        <v>484</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>629</v>
+        <v>485</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>630</v>
+        <v>486</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>631</v>
+        <v>487</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>632</v>
+        <v>488</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>634</v>
+        <v>490</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>635</v>
+        <v>491</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>612</v>
+        <v>468</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>636</v>
+        <v>492</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>637</v>
+        <v>493</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>638</v>
+        <v>494</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>639</v>
+        <v>495</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>640</v>
+        <v>496</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>641</v>
+        <v>497</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>642</v>
+        <v>498</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>643</v>
+        <v>499</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>644</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
